--- a/data/dur_home_alone.xlsx
+++ b/data/dur_home_alone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c2bddebcd58e8e8/UNI/2020 S2/STAT3199/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time-use-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE967D4-BF7F-4909-8067-BD327B12DB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81D4D40-1F4C-4E97-8434-054719382D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{431BBB01-DD1D-4D8E-80BB-57989141D08A}"/>
+    <workbookView xWindow="3000" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{431BBB01-DD1D-4D8E-80BB-57989141D08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1981B8E0-1BEE-4909-B5BC-BA0091914967}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23:T28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,25 +481,31 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>21.5</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F2">
-        <v>22.666666666666664</v>
+        <v>14.166666666666668</v>
       </c>
       <c r="G2">
         <v>1.3333333333333333</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -506,25 +513,31 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>11.833333333333334</v>
+        <v>3.8333333333333339</v>
       </c>
       <c r="D3">
         <v>12.166666666666666</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>20.833333333333336</v>
+        <v>12.833333333333332</v>
       </c>
       <c r="G3">
         <v>3.166666666666667</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -535,22 +548,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>23.666666666666668</v>
+        <v>25.666666666666664</v>
       </c>
       <c r="G4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -558,25 +571,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>20.5</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="D5">
-        <v>3.5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="F5">
-        <v>15.833333333333332</v>
+        <v>19.833333333333332</v>
       </c>
       <c r="G5">
-        <v>8.1666666666666679</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10.166666666666666</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -584,25 +597,31 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>17.166666666666668</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="F6">
-        <v>22.833333333333332</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>1.1666666666666667</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -610,25 +629,31 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>19.666666666666664</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="D7">
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="F7">
-        <v>22.166666666666668</v>
+        <v>13.833333333333336</v>
       </c>
       <c r="G7">
-        <v>1.8333333333333335</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -636,25 +661,31 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>23.5</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="D8">
         <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="F8">
-        <v>20.333333333333332</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>3.666666666666667</v>
+        <v>3.6666666666666661</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -662,25 +693,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>16.166666666666668</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="F9">
-        <v>22.5</v>
+        <v>15.666666666666668</v>
       </c>
       <c r="G9">
         <v>1.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -688,25 +725,31 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>17.5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>6.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F10">
-        <v>15.5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>8.5</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11.5</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -717,22 +760,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>15.666666666666668</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="F11">
-        <v>18.833333333333332</v>
+        <v>10.5</v>
       </c>
       <c r="G11">
         <v>5.166666666666667</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -740,25 +789,31 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>16</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -766,25 +821,31 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -792,25 +853,25 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>24.833333333333329</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
-        <v>20</v>
+        <v>22.833333333333332</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -818,25 +879,25 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="G15">
         <v>8.5</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -844,23 +905,29 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dur_home_alone.xlsx
+++ b/data/dur_home_alone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time-use-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81D4D40-1F4C-4E97-8434-054719382D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EAF83C-92B5-42C6-87FC-4CCA436B151E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{431BBB01-DD1D-4D8E-80BB-57989141D08A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{431BBB01-DD1D-4D8E-80BB-57989141D08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Respondent</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Missing_alone</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>During</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I2" sqref="I2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +478,9 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -490,13 +499,16 @@
         <v>8.5</v>
       </c>
       <c r="F2">
-        <v>14.166666666666668</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="G2">
         <v>1.3333333333333333</v>
       </c>
       <c r="H2">
         <v>8.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -513,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3.8333333333333339</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="D3">
         <v>12.166666666666666</v>
@@ -522,13 +534,16 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>12.833333333333332</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="G3">
-        <v>3.166666666666667</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="H3">
         <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -548,13 +563,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>25.666666666666664</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="G4">
         <v>0.33333333333333331</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -571,16 +595,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>25.833333333333332</v>
+        <v>20.5</v>
       </c>
       <c r="D5">
-        <v>4.166666666666667</v>
+        <v>3.5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>19.833333333333332</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="G5">
-        <v>10.166666666666666</v>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -597,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>17.166666666666668</v>
+        <v>15.166666666666666</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -613,6 +646,9 @@
       </c>
       <c r="H6">
         <v>6.833333333333333</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -638,13 +674,16 @@
         <v>8.1666666666666661</v>
       </c>
       <c r="F7">
-        <v>13.833333333333336</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
         <v>8.1666666666666661</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -673,10 +712,13 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>3.6666666666666661</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H8">
         <v>11.333333333333334</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -702,13 +744,16 @@
         <v>6.833333333333333</v>
       </c>
       <c r="F9">
-        <v>15.666666666666668</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="G9">
         <v>1.5</v>
       </c>
       <c r="H9">
         <v>6.833333333333333</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -734,13 +779,16 @@
         <v>11.5</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G10">
         <v>8.5</v>
       </c>
       <c r="H10">
         <v>11.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -760,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.666666666666668</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="E11">
         <v>8.3333333333333339</v>
@@ -773,6 +821,9 @@
       </c>
       <c r="H11">
         <v>8.3333333333333339</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -806,6 +857,9 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -838,6 +892,9 @@
       <c r="H13">
         <v>10</v>
       </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -853,16 +910,25 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>24.833333333333329</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14">
-        <v>22.833333333333332</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -879,16 +945,25 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="F15">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="G15">
         <v>8.5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -922,6 +997,9 @@
       <c r="H16">
         <v>2</v>
       </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
